--- a/data_year/zb/文化/广播电视技术情况.xlsx
+++ b/data_year/zb/文化/广播电视技术情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,303 +478,213 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>822</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2252</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2376</v>
+      </c>
+      <c r="E2" t="n">
+        <v>30770</v>
+      </c>
       <c r="F2" t="n">
-        <v>27163</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+        <v>15965</v>
+      </c>
+      <c r="G2" t="n">
+        <v>448</v>
+      </c>
+      <c r="H2" t="n">
+        <v>19315</v>
+      </c>
       <c r="I2" t="n">
-        <v>16657</v>
+        <v>11604</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>802</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>827</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2300</v>
+      </c>
       <c r="D3" t="n">
-        <v>2745</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>2497</v>
+      </c>
+      <c r="E3" t="n">
+        <v>30082</v>
+      </c>
       <c r="F3" t="n">
-        <v>18249</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+        <v>15397</v>
+      </c>
+      <c r="G3" t="n">
+        <v>411</v>
+      </c>
+      <c r="H3" t="n">
+        <v>19491</v>
+      </c>
       <c r="I3" t="n">
-        <v>10582</v>
+        <v>11403</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>808</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>849</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2373</v>
+      </c>
       <c r="D4" t="n">
-        <v>2674</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>2421</v>
+      </c>
+      <c r="E4" t="n">
+        <v>29427</v>
+      </c>
       <c r="F4" t="n">
-        <v>18490</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+        <v>14843</v>
+      </c>
+      <c r="G4" t="n">
+        <v>621</v>
+      </c>
+      <c r="H4" t="n">
+        <v>19808</v>
+      </c>
       <c r="I4" t="n">
-        <v>12087</v>
+        <v>11396</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>809</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>850</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2397</v>
+      </c>
       <c r="D5" t="n">
-        <v>2591</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>2207</v>
+      </c>
+      <c r="E5" t="n">
+        <v>26840</v>
+      </c>
       <c r="F5" t="n">
-        <v>17700</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+        <v>13365</v>
+      </c>
+      <c r="G5" t="n">
+        <v>622</v>
+      </c>
+      <c r="H5" t="n">
+        <v>19077</v>
+      </c>
       <c r="I5" t="n">
-        <v>12100</v>
+        <v>10334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>822</v>
+        <v>856</v>
       </c>
       <c r="C6" t="n">
-        <v>2252</v>
+        <v>2451</v>
       </c>
       <c r="D6" t="n">
-        <v>2376</v>
+        <v>2302</v>
       </c>
       <c r="E6" t="n">
-        <v>30770</v>
+        <v>24397</v>
       </c>
       <c r="F6" t="n">
-        <v>15965</v>
+        <v>11254</v>
       </c>
       <c r="G6" t="n">
-        <v>448</v>
+        <v>628</v>
       </c>
       <c r="H6" t="n">
-        <v>19315</v>
+        <v>17918</v>
       </c>
       <c r="I6" t="n">
-        <v>11604</v>
+        <v>9259</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>827</v>
+        <v>860</v>
       </c>
       <c r="C7" t="n">
-        <v>2300</v>
+        <v>2502</v>
       </c>
       <c r="D7" t="n">
-        <v>2497</v>
+        <v>2121</v>
       </c>
       <c r="E7" t="n">
-        <v>30082</v>
-      </c>
-      <c r="F7" t="n">
-        <v>15397</v>
-      </c>
+        <v>22421</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>411</v>
+        <v>636</v>
       </c>
       <c r="H7" t="n">
-        <v>19491</v>
+        <v>18390</v>
       </c>
       <c r="I7" t="n">
-        <v>11403</v>
+        <v>14941</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>849</v>
+        <v>862</v>
       </c>
       <c r="C8" t="n">
-        <v>2373</v>
+        <v>2567</v>
       </c>
       <c r="D8" t="n">
-        <v>2421</v>
+        <v>1988</v>
       </c>
       <c r="E8" t="n">
-        <v>29427</v>
-      </c>
-      <c r="F8" t="n">
-        <v>14843</v>
-      </c>
+        <v>25266</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>621</v>
+        <v>696</v>
       </c>
       <c r="H8" t="n">
-        <v>19808</v>
+        <v>18461</v>
       </c>
       <c r="I8" t="n">
-        <v>11396</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>850</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2397</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2207</v>
-      </c>
-      <c r="E9" t="n">
-        <v>26840</v>
-      </c>
-      <c r="F9" t="n">
-        <v>13365</v>
-      </c>
-      <c r="G9" t="n">
-        <v>622</v>
-      </c>
-      <c r="H9" t="n">
-        <v>19077</v>
-      </c>
-      <c r="I9" t="n">
-        <v>10334</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>856</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2451</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2302</v>
-      </c>
-      <c r="E10" t="n">
-        <v>24397</v>
-      </c>
-      <c r="F10" t="n">
-        <v>11254</v>
-      </c>
-      <c r="G10" t="n">
-        <v>628</v>
-      </c>
-      <c r="H10" t="n">
-        <v>17918</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9259</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>860</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2502</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2121</v>
-      </c>
-      <c r="E11" t="n">
-        <v>22421</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>636</v>
-      </c>
-      <c r="H11" t="n">
-        <v>18390</v>
-      </c>
-      <c r="I11" t="n">
-        <v>14941</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>862</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2567</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1988</v>
-      </c>
-      <c r="E12" t="n">
-        <v>25266</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
-        <v>696</v>
-      </c>
-      <c r="H12" t="n">
-        <v>18461</v>
-      </c>
-      <c r="I12" t="n">
         <v>14531</v>
       </c>
     </row>
